--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.1/percents/scores-10.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,60 +46,33 @@
     <t>worst</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>annoying</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>destroying</t>
   </si>
   <si>
@@ -109,22 +82,10 @@
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>confused</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>racist</t>
+    <t>shocked</t>
   </si>
   <si>
     <t>insane</t>
@@ -133,24 +94,33 @@
     <t>fucked</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>worse</t>
   </si>
   <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
     <t>0.95-negative</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -160,45 +130,24 @@
     <t>brilliant</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>inspired</t>
   </si>
   <si>
     <t>fascinating</t>
   </si>
   <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -208,22 +157,31 @@
     <t>relevant</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>love</t>
+    <t>pretty</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>society</t>
-  </si>
-  <si>
-    <t>netflix</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -602,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS34"/>
+  <dimension ref="A1:BS27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,28 +568,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AK1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AT1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="BC1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="BL1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -833,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01633590063714355</v>
+        <v>0.01726919216506494</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -851,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.01119218774458452</v>
+        <v>0.01116815713962185</v>
       </c>
       <c r="L3">
         <v>14</v>
@@ -875,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.01929164110063679</v>
+        <v>0.02042151992691561</v>
       </c>
       <c r="U3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -899,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AC3">
-        <v>0.1233411397345823</v>
+        <v>0.1278270884784863</v>
       </c>
       <c r="AD3">
         <v>14</v>
@@ -923,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.02361156947035768</v>
+        <v>0.02502876819423582</v>
       </c>
       <c r="AM3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -947,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AU3">
-        <v>0.09934991520633117</v>
+        <v>0.09901202030809983</v>
       </c>
       <c r="AV3">
         <v>14</v>
@@ -971,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.0305234548619111</v>
+        <v>0.03240036542194816</v>
       </c>
       <c r="BE3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BF3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -995,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="BM3">
-        <v>0.08573327425786439</v>
+        <v>0.08459161654323998</v>
       </c>
       <c r="BN3">
         <v>14</v>
@@ -1019,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1027,13 +985,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01561005302034003</v>
+        <v>0.01501956329673104</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1045,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.009699093306361305</v>
+        <v>0.01039155877345796</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1069,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01849404159926531</v>
+        <v>0.01777149708804385</v>
       </c>
       <c r="U4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1093,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AC4">
-        <v>0.107207910486599</v>
+        <v>0.1181174326856409</v>
       </c>
       <c r="AD4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1117,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.02270910183000227</v>
+        <v>0.02179355416765489</v>
       </c>
       <c r="AM4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1141,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AU4">
-        <v>0.0876672319577915</v>
+        <v>0.09186137514465174</v>
       </c>
       <c r="AV4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1165,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.0294531981991814</v>
+        <v>0.02822884549503255</v>
       </c>
       <c r="BE4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BF4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1189,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="BM4">
-        <v>0.07657657657657656</v>
+        <v>0.07872161962592034</v>
       </c>
       <c r="BN4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BO4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1213,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1221,13 +1179,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.003707505131182506</v>
+        <v>0.004493247507257353</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1239,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.009662970053823647</v>
+        <v>0.009699103619040457</v>
       </c>
       <c r="L5">
         <v>12</v>
@@ -1263,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004359765980890756</v>
+        <v>0.00527149708804385</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1287,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AC5">
-        <v>0.1056466302367941</v>
+        <v>0.1121781832142427</v>
       </c>
       <c r="AD5">
         <v>12</v>
@@ -1311,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.005313070299695122</v>
+        <v>0.006408938783039502</v>
       </c>
       <c r="AM5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1335,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AU5">
-        <v>0.08568871302053882</v>
+        <v>0.08911215609677785</v>
       </c>
       <c r="AV5">
         <v>12</v>
@@ -1359,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.006838357209782109</v>
+        <v>0.008228845495032546</v>
       </c>
       <c r="BE5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1383,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="BM5">
-        <v>0.07436124649239401</v>
+        <v>0.07756884055373542</v>
       </c>
       <c r="BN5">
         <v>12</v>
@@ -1407,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1415,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003701484589092897</v>
+        <v>0.003747378037419688</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1433,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.009638887885465207</v>
+        <v>0.009687083160219543</v>
       </c>
       <c r="L6">
         <v>12</v>
@@ -1457,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.00433116840596511</v>
+        <v>0.004407188534886377</v>
       </c>
       <c r="U6">
         <v>4</v>
@@ -1481,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AC6">
-        <v>0.1046057767369243</v>
+        <v>0.1116395537397503</v>
       </c>
       <c r="AD6">
         <v>12</v>
@@ -1505,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.005251475522932192</v>
+        <v>0.005371526954260766</v>
       </c>
       <c r="AM6">
         <v>4</v>
@@ -1529,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AU6">
-        <v>0.08436970039570371</v>
+        <v>0.08848338093741011</v>
       </c>
       <c r="AV6">
         <v>12</v>
@@ -1553,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.006723966910079524</v>
+        <v>0.006914468425259792</v>
       </c>
       <c r="BE6">
         <v>4</v>
@@ -1577,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="BM6">
-        <v>0.07288435976960565</v>
+        <v>0.07689495229014474</v>
       </c>
       <c r="BN6">
         <v>12</v>
@@ -1601,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1609,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003683422962824067</v>
+        <v>0.003741367808009232</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1627,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.005219809991691652</v>
+        <v>0.005219820304370805</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -1657,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004245375681188172</v>
+        <v>0.004378639945186708</v>
       </c>
       <c r="U7">
         <v>4</v>
@@ -1675,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AC7">
-        <v>0.05880822274264896</v>
+        <v>0.0619996905745572</v>
       </c>
       <c r="AD7">
         <v>6</v>
@@ -1705,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.005066691192643401</v>
+        <v>0.005310037684138403</v>
       </c>
       <c r="AM7">
         <v>4</v>
@@ -1723,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AU7">
-        <v>0.05261918221217256</v>
+        <v>0.05563991250660549</v>
       </c>
       <c r="AV7">
         <v>6</v>
@@ -1753,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.006380796010971768</v>
+        <v>0.006800274066461116</v>
       </c>
       <c r="BE7">
         <v>4</v>
@@ -1771,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="BM7">
-        <v>0.04910648353271303</v>
+        <v>0.05245718300367772</v>
       </c>
       <c r="BN7">
         <v>6</v>
@@ -1803,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002969616430199771</v>
+        <v>0.003001508567582025</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1824,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.004473262772580043</v>
+        <v>0.004473273085259197</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1851,7 +1809,7 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.003504971329667993</v>
+        <v>0.003542879981728903</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1872,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AC8">
-        <v>0.05074160811865728</v>
+        <v>0.05363660846794294</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -1899,7 +1857,7 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004287413105813856</v>
+        <v>0.004334115125482032</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1920,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AU8">
-        <v>0.04677784058790273</v>
+        <v>0.05006120524157675</v>
       </c>
       <c r="AV8">
         <v>5</v>
@@ -1947,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.005539319947647238</v>
+        <v>0.005600091355487039</v>
       </c>
       <c r="BE8">
         <v>3</v>
@@ -1968,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="BM8">
-        <v>0.04452813469206911</v>
+        <v>0.04827190674533477</v>
       </c>
       <c r="BN8">
         <v>5</v>
@@ -1997,7 +1955,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002963595888110161</v>
+        <v>0.002995498338171568</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2018,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.003726715553468435</v>
+        <v>0.003726725866147588</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -2045,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003476373754742347</v>
+        <v>0.003514331392029234</v>
       </c>
       <c r="U9">
         <v>3</v>
@@ -2066,10 +2024,10 @@
         <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AC9">
-        <v>0.04267499349466561</v>
+        <v>0.0452735263613287</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -2093,7 +2051,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004225818329050926</v>
+        <v>0.004272625855359668</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -2114,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AU9">
-        <v>0.0409364989636329</v>
+        <v>0.04448249797654803</v>
       </c>
       <c r="AV9">
         <v>4</v>
@@ -2141,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.005424929647944653</v>
+        <v>0.005485896996688363</v>
       </c>
       <c r="BE9">
         <v>3</v>
@@ -2162,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="BM9">
-        <v>0.03994978585142519</v>
+        <v>0.04408663048699181</v>
       </c>
       <c r="BN9">
         <v>4</v>
@@ -2191,13 +2149,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002225707187127426</v>
+        <v>0.002965447191119285</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2209,19 +2167,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.002233621115245217</v>
+        <v>0.002974168417625522</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2233,19 +2191,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.002621579103519583</v>
+        <v>0.00337158844353089</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2257,19 +2215,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AC10">
-        <v>0.02654176424668227</v>
+        <v>0.03664112951746822</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2281,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.003200161135169659</v>
+        <v>0.00396517950474785</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2305,19 +2263,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AU10">
-        <v>0.02925381571509325</v>
+        <v>0.03858940313183542</v>
       </c>
       <c r="AV10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2329,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.004125892385809782</v>
+        <v>0.004914925202694987</v>
       </c>
       <c r="BE10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -2353,19 +2311,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="BM10">
-        <v>0.03079308817013734</v>
+        <v>0.03956441009685352</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -2377,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2385,7 +2343,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002225707187127426</v>
+        <v>0.002249628868333905</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2406,16 +2364,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.002221580031065997</v>
+        <v>0.002974168417625522</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2427,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002621579103519583</v>
+        <v>0.00265002283887176</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2454,16 +2412,16 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AC11">
-        <v>0.02602133749674732</v>
+        <v>0.03664112951746822</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -2475,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003200161135169659</v>
+        <v>0.003235214026580933</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2502,16 +2460,16 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AU11">
-        <v>0.02859430940267568</v>
+        <v>0.03858940313183542</v>
       </c>
       <c r="AV11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX11">
         <v>1</v>
@@ -2523,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004125892385809782</v>
+        <v>0.004171519926915611</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2550,16 +2508,16 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="BM11">
-        <v>0.03005464480874316</v>
+        <v>0.03956441009685352</v>
       </c>
       <c r="BN11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -2571,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2579,7 +2537,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002225707187127426</v>
+        <v>0.002249628868333905</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2600,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.002221580031065997</v>
+        <v>0.002149488216177977</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2621,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002621579103519583</v>
+        <v>0.00265002283887176</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2648,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AC12">
-        <v>0.02602133749674732</v>
+        <v>0.02477695582665299</v>
       </c>
       <c r="AD12">
         <v>2</v>
@@ -2669,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003200161135169659</v>
+        <v>0.003235214026580933</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2696,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AU12">
-        <v>0.02859430940267568</v>
+        <v>0.02892365733091634</v>
       </c>
       <c r="AV12">
         <v>2</v>
@@ -2717,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004125892385809782</v>
+        <v>0.004171519926915611</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2744,16 +2702,16 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="BM12">
-        <v>0.03005464480874316</v>
+        <v>0.03153080171196296</v>
       </c>
       <c r="BN12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2765,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2773,7 +2731,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002225707187127426</v>
+        <v>0.002249628868333905</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2794,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.001487073896133608</v>
+        <v>0.00159654711041597</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2815,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002621579103519583</v>
+        <v>0.00265002283887176</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2842,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AC13">
-        <v>0.0184751496226906</v>
+        <v>0.02018428004148593</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2869,7 +2827,7 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003200161135169659</v>
+        <v>0.003235214026580933</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2890,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AU13">
-        <v>0.02341247409082342</v>
+        <v>0.02774637618146183</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2917,7 +2875,7 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004125892385809782</v>
+        <v>0.004171519926915611</v>
       </c>
       <c r="BE13">
         <v>2</v>
@@ -2938,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="BM13">
-        <v>0.02621473932949343</v>
+        <v>0.03153080171196296</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2967,13 +2925,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002225707187127426</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2988,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.001487073896133608</v>
+        <v>0.001487084208812761</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3015,13 +2973,13 @@
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002621579103519583</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3036,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AC14">
-        <v>0.0184751496226906</v>
+        <v>0.02018428004148593</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3063,13 +3021,13 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003200161135169659</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3084,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AU14">
-        <v>0.02341247409082342</v>
+        <v>0.02774637618146183</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3111,13 +3069,13 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004125892385809782</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3132,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="BM14">
-        <v>0.02621473932949343</v>
+        <v>0.03153080171196296</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3161,13 +3119,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002225707187127426</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3182,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.001487073896133608</v>
+        <v>0.001487084208812761</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3209,13 +3167,13 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002621579103519583</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3230,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AC15">
-        <v>0.0184751496226906</v>
+        <v>0.02018428004148593</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3257,13 +3215,13 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.003200161135169659</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3278,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AU15">
-        <v>0.02341247409082342</v>
+        <v>0.02774637618146183</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3305,13 +3263,13 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.004125892385809782</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3326,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="BM15">
-        <v>0.02621473932949343</v>
+        <v>0.03153080171196296</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3355,13 +3313,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.002225707187127426</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3376,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.001487073896133608</v>
+        <v>0.001487084208812761</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3403,13 +3361,13 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002621579103519583</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3424,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AC16">
-        <v>0.0184751496226906</v>
+        <v>0.02018428004148593</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3451,13 +3409,13 @@
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.003200161135169659</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3472,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AU16">
-        <v>0.02341247409082342</v>
+        <v>0.02774637618146183</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3499,13 +3457,13 @@
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.004125892385809782</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3520,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="BM16">
-        <v>0.02621473932949343</v>
+        <v>0.03119385758016762</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3541,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3549,13 +3507,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.002225707187127426</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3570,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.001487073896133608</v>
+        <v>0.001487084208812761</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3597,13 +3555,13 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002621579103519583</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3618,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AC17">
-        <v>0.0184751496226906</v>
+        <v>0.0199149653042397</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3639,19 +3597,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.003200161135169659</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3666,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AU17">
-        <v>0.02341247409082342</v>
+        <v>0.02743198860177796</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3687,19 +3645,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.004125892385809782</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3714,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="BM17">
-        <v>0.02621473932949343</v>
+        <v>0.03119385758016762</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3735,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3743,13 +3701,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.002225707187127426</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3764,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.001487073896133608</v>
+        <v>0.001481073979402305</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3785,19 +3743,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002621579103519583</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3812,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AC18">
-        <v>0.0184751496226906</v>
+        <v>0.0199149653042397</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3833,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.003200161135169659</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3860,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AU18">
-        <v>0.02341247409082342</v>
+        <v>0.02743198860177796</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3881,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.004125892385809782</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -3908,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="BM18">
-        <v>0.02621473932949343</v>
+        <v>0.03119385758016762</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3929,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3937,13 +3895,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002225707187127426</v>
+        <v>0.001497749169085784</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3958,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.001487073896133608</v>
+        <v>0.001481073979402305</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3979,19 +3937,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.002621579103519583</v>
+        <v>0.001757165696014617</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -4006,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AC19">
-        <v>0.0184751496226906</v>
+        <v>0.0199149653042397</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4027,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.003200161135169659</v>
+        <v>0.002136312927679834</v>
       </c>
       <c r="AM19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -4054,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AU19">
-        <v>0.02341247409082342</v>
+        <v>0.02743198860177796</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4075,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.004125892385809782</v>
+        <v>0.002742948498344182</v>
       </c>
       <c r="BE19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -4102,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BM19">
-        <v>0.02621473932949343</v>
+        <v>0.03119385758016762</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4123,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4131,13 +4089,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002195604476679377</v>
+        <v>0.001491738939675328</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4149,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.001487073896133608</v>
+        <v>0.001481073979402305</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4173,19 +4131,19 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.002478591228891352</v>
+        <v>0.001728617106314948</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -4197,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AC20">
-        <v>0.0184751496226906</v>
+        <v>0.0199149653042397</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4221,19 +4179,19 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.002892187251355007</v>
+        <v>0.002074823657557471</v>
       </c>
       <c r="AM20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -4245,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AU20">
-        <v>0.02341247409082342</v>
+        <v>0.02743198860177796</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4269,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.003553940887296856</v>
+        <v>0.002628754139545506</v>
       </c>
       <c r="BE20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG20">
         <v>0</v>
@@ -4293,19 +4251,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="BM20">
-        <v>0.02621473932949343</v>
+        <v>0.03099886012517116</v>
       </c>
       <c r="BN20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP20">
         <v>1</v>
@@ -4317,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4325,7 +4283,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00148179794405508</v>
+        <v>0.001491738939675328</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4343,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.001487073896133608</v>
+        <v>0.001481073979402305</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4367,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001738186877371173</v>
+        <v>0.001728617106314948</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4391,13 +4349,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AC21">
-        <v>0.0184751496226906</v>
+        <v>0.01964565056699347</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4415,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.002112909164525463</v>
+        <v>0.002074823657557471</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4439,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AU21">
-        <v>0.02341247409082342</v>
+        <v>0.02711760102209409</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4463,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.002712464823972327</v>
+        <v>0.002628754139545506</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4487,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="BM21">
-        <v>0.02621473932949343</v>
+        <v>0.03085691344837228</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4511,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4519,7 +4477,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00148179794405508</v>
+        <v>0.001491738939675328</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4537,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.001487073896133608</v>
+        <v>0.001475063749991848</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4561,13 +4519,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001738186877371173</v>
+        <v>0.001728617106314948</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4585,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AC22">
-        <v>0.0184751496226906</v>
+        <v>0.01910702109250101</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4609,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.002112909164525463</v>
+        <v>0.002074823657557471</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4633,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AU22">
-        <v>0.02341247409082342</v>
+        <v>0.02648882586272634</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4657,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.002712464823972327</v>
+        <v>0.002628754139545506</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4681,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="BM22">
-        <v>0.02621473932949343</v>
+        <v>0.0301830251847816</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4705,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4713,7 +4671,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00148179794405508</v>
+        <v>0.001485728710264871</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4731,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.001487073896133608</v>
+        <v>0.001463043291170935</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4755,13 +4713,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001738186877371173</v>
+        <v>0.001700068516615279</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4779,13 +4737,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AC23">
-        <v>0.0184751496226906</v>
+        <v>0.01910702109250101</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4803,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.002112909164525463</v>
+        <v>0.002013334387435107</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4827,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AU23">
-        <v>0.02341247409082342</v>
+        <v>0.02648882586272634</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4851,13 +4809,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.002712464823972327</v>
+        <v>0.002514559780746831</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4875,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="BM23">
-        <v>0.02621473932949343</v>
+        <v>0.0301830251847816</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4899,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4907,7 +4865,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00148179794405508</v>
+        <v>0.001485728710264871</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4925,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.001487073896133608</v>
+        <v>0.001463043291170935</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4949,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001738186877371173</v>
+        <v>0.001700068516615279</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4973,13 +4931,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AC24">
-        <v>0.0184751496226906</v>
+        <v>0.01856839161800856</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -4997,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.002112909164525463</v>
+        <v>0.002013334387435107</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5021,13 +4979,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AU24">
-        <v>0.02341247409082342</v>
+        <v>0.02586005070335859</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5045,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.002712464823972327</v>
+        <v>0.002514559780746831</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5069,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="BM24">
-        <v>0.02621473932949343</v>
+        <v>0.02950913692119093</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5093,39 +5051,15 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:71">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.00148179794405508</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.001481053354043998</v>
+        <v>0.001451022832350022</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5143,37 +5077,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25">
-        <v>0.001738186877371173</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="AC25">
-        <v>0.01821493624772313</v>
+        <v>0.01722181793177742</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5191,37 +5101,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL25">
-        <v>0.002112909164525463</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="AU25">
-        <v>0.02308272093461464</v>
+        <v>0.02428811280493923</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5239,37 +5125,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD25">
-        <v>0.002712464823972327</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <v>1</v>
-      </c>
-      <c r="BI25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="BM25">
-        <v>0.02584551764879633</v>
+        <v>0.02782441626221423</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5287,39 +5149,15 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:71">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.00148179794405508</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.001481053354043998</v>
+        <v>0.001420971685297739</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5337,37 +5175,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26">
-        <v>0.001738186877371173</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AC26">
-        <v>0.01821493624772313</v>
+        <v>0.01722181793177742</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5385,37 +5199,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL26">
-        <v>0.002112909164525463</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AU26">
-        <v>0.02308272093461464</v>
+        <v>0.02428811280493923</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5433,37 +5223,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>1</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD26">
-        <v>0.002712464823972327</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="BM26">
-        <v>0.02584551764879633</v>
+        <v>0.02782441626221423</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5481,39 +5247,15 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:71">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.00148179794405508</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.001481053354043998</v>
+        <v>0.001420971685297739</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5531,43 +5273,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27">
-        <v>0.001738186877371173</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AC27">
-        <v>0.01821493624772313</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -5579,43 +5297,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL27">
-        <v>0.002112909164525463</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AU27">
-        <v>0.02308272093461464</v>
+        <v>0</v>
       </c>
       <c r="AV27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX27">
         <v>1</v>
@@ -5627,43 +5321,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>1</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD27">
-        <v>0.002712464823972327</v>
-      </c>
-      <c r="BE27">
-        <v>1</v>
-      </c>
-      <c r="BF27">
-        <v>1</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="BM27">
-        <v>0.02584551764879633</v>
+        <v>0</v>
       </c>
       <c r="BN27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP27">
         <v>1</v>
@@ -5675,1077 +5345,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:71">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.00148179794405508</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28">
-        <v>0.001475032811954389</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>2</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>0.001738186877371173</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC28">
-        <v>0.01795472287275566</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>2</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28">
-        <v>0.002112909164525463</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU28">
-        <v>0.02275296777840586</v>
-      </c>
-      <c r="AV28">
-        <v>1</v>
-      </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>2</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD28">
-        <v>0.002712464823972327</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>1</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BL28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM28">
-        <v>0.02547629596809924</v>
-      </c>
-      <c r="BN28">
-        <v>1</v>
-      </c>
-      <c r="BO28">
-        <v>1</v>
-      </c>
-      <c r="BP28">
-        <v>1</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:71">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.00148179794405508</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29">
-        <v>0.001475032811954389</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29">
-        <v>0.001738186877371173</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC29">
-        <v>0.01795472287275566</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>2</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>0.002112909164525463</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU29">
-        <v>0.02275296777840586</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
-      </c>
-      <c r="AW29">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>1</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>2</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD29">
-        <v>0.002712464823972327</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>0</v>
-      </c>
-      <c r="BL29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM29">
-        <v>0.02547629596809924</v>
-      </c>
-      <c r="BN29">
-        <v>1</v>
-      </c>
-      <c r="BO29">
-        <v>1</v>
-      </c>
-      <c r="BP29">
-        <v>1</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:71">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.00148179794405508</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30">
-        <v>0.00143288901732712</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>9</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30">
-        <v>0.001738186877371173</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC30">
-        <v>0.01613322924798334</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>9</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30">
-        <v>0.002112909164525463</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU30">
-        <v>0.0204446956849444</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>9</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD30">
-        <v>0.002712464823972327</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>0</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM30">
-        <v>0.02289174420321961</v>
-      </c>
-      <c r="BN30">
-        <v>1</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>1</v>
-      </c>
-      <c r="BQ30">
-        <v>0</v>
-      </c>
-      <c r="BR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:71">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.00148179794405508</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31">
-        <v>0.001059615407771315</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>71</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31">
-        <v>0.001738186877371173</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>71</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL31">
-        <v>0.002112909164525463</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>1</v>
-      </c>
-      <c r="AW31">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>71</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD31">
-        <v>0.002712464823972327</v>
-      </c>
-      <c r="BE31">
-        <v>1</v>
-      </c>
-      <c r="BF31">
-        <v>1</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>0</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM31">
-        <v>0</v>
-      </c>
-      <c r="BN31">
-        <v>1</v>
-      </c>
-      <c r="BO31">
-        <v>1</v>
-      </c>
-      <c r="BP31">
-        <v>1</v>
-      </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
-      <c r="BR31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS31">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:71">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.00148179794405508</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T32">
-        <v>0.001738186877371173</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL32">
-        <v>0.002112909164525463</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD32">
-        <v>0.002712464823972327</v>
-      </c>
-      <c r="BE32">
-        <v>1</v>
-      </c>
-      <c r="BF32">
-        <v>1</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>1</v>
-      </c>
-      <c r="BI32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:62">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.001475777401965471</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T33">
-        <v>0.001709589302445527</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL33">
-        <v>0.002051314387762532</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>1</v>
-      </c>
-      <c r="BC33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD33">
-        <v>0.002598074524269741</v>
-      </c>
-      <c r="BE33">
-        <v>1</v>
-      </c>
-      <c r="BF33">
-        <v>1</v>
-      </c>
-      <c r="BG33">
-        <v>0</v>
-      </c>
-      <c r="BH33">
-        <v>1</v>
-      </c>
-      <c r="BI33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:62">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.001475777401965471</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34">
-        <v>0.001709589302445527</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL34">
-        <v>0.002051314387762532</v>
-      </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>1</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD34">
-        <v>0.002598074524269741</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>1</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>1</v>
-      </c>
-      <c r="BI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
